--- a/arduino/DataPackage.xlsx
+++ b/arduino/DataPackage.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meier\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meier\Documents\Repos\lora\arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEC2508-2131-46D6-BA9B-F07AF677E9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21EF4FC-642C-46A1-9EF3-E73F7904AA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1778" yWindow="525" windowWidth="18712" windowHeight="12105" activeTab="1" xr2:uid="{CDF7A0A5-12B1-43F1-AFDE-54CA91221B4B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" activeTab="2" xr2:uid="{CDF7A0A5-12B1-43F1-AFDE-54CA91221B4B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
+    <sheet name="Data package" sheetId="1" r:id="rId1"/>
+    <sheet name="BatteryVotage" sheetId="2" r:id="rId2"/>
+    <sheet name="Tabelle1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>rest 50 bytes</t>
   </si>
@@ -104,6 +105,36 @@
   </si>
   <si>
     <t>Voltage</t>
+  </si>
+  <si>
+    <t>First 2 bytes</t>
+  </si>
+  <si>
+    <t>counter</t>
+  </si>
+  <si>
+    <t>Hour of day</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>HEX</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>8C</t>
+  </si>
+  <si>
+    <t>DEC</t>
+  </si>
+  <si>
+    <t>Corr [%]</t>
+  </si>
+  <si>
+    <t>BatteryIndex</t>
   </si>
 </sst>
 </file>
@@ -113,7 +144,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,8 +152,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,8 +192,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -156,11 +211,90 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -175,8 +309,46 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Gut" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -232,7 +404,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-CH"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -315,14 +487,14 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
+                  <a:endParaRPr lang="en-CH"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle2!$A$2:$A$6</c:f>
+              <c:f>BatteryVotage!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -346,7 +518,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle2!$B$2:$B$6</c:f>
+              <c:f>BatteryVotage!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -448,14 +620,14 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
+                  <a:endParaRPr lang="en-CH"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle2!$A$6:$A$13</c:f>
+              <c:f>BatteryVotage!$A$6:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -488,7 +660,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle2!$B$6:$B$13</c:f>
+              <c:f>BatteryVotage!$B$6:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -593,7 +765,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1627226991"/>
@@ -656,7 +828,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1627225743"/>
@@ -704,7 +876,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-CH"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1615,13 +1787,13 @@
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1629,7 +1801,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1638,12 +1810,12 @@
         <v>408</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1651,7 +1823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1659,7 +1831,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1668,12 +1840,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1681,7 +1853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1690,7 +1862,7 @@
         <v>14.285714285714286</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1699,7 +1871,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>5</v>
       </c>
@@ -1709,17 +1881,17 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -1734,7 +1906,7 @@
         <v>36.090909090909093</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -1749,7 +1921,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B24">
         <f>2^B23</f>
         <v>2048</v>
@@ -1762,7 +1934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>9</v>
       </c>
@@ -1772,7 +1944,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1780,7 +1952,7 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>18</v>
       </c>
@@ -1790,7 +1962,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>12</v>
       </c>
@@ -1802,7 +1974,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>19</v>
       </c>
@@ -1815,7 +1987,7 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1823,7 +1995,7 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>20</v>
       </c>
@@ -1836,13 +2008,13 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="D34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -1865,7 +2037,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1</v>
       </c>
@@ -1893,7 +2065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2</v>
       </c>
@@ -1921,7 +2093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>3</v>
       </c>
@@ -1962,18 +2134,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C77FA5AC-5DA0-4811-9662-3132B719B7F9}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>4.2</v>
       </c>
@@ -1981,7 +2153,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>4.0999999999999996</v>
       </c>
@@ -1989,7 +2161,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -1997,7 +2169,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3.9</v>
       </c>
@@ -2005,7 +2177,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3.8</v>
       </c>
@@ -2013,7 +2185,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3.7</v>
       </c>
@@ -2021,7 +2193,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3.6</v>
       </c>
@@ -2029,7 +2201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3.5</v>
       </c>
@@ -2037,7 +2209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3.4</v>
       </c>
@@ -2045,7 +2217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3.3</v>
       </c>
@@ -2053,7 +2225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3.19999999999999</v>
       </c>
@@ -2061,7 +2233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3.0999999999999899</v>
       </c>
@@ -2073,4 +2245,345 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BA1C9C9-9441-4141-A399-61EB92DAC4E4}">
+  <dimension ref="A1:S11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="19" width="4.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="12">
+        <v>7</v>
+      </c>
+      <c r="B2" s="13">
+        <v>6</v>
+      </c>
+      <c r="C2" s="13">
+        <v>5</v>
+      </c>
+      <c r="D2" s="13">
+        <v>4</v>
+      </c>
+      <c r="E2" s="13">
+        <v>3</v>
+      </c>
+      <c r="F2" s="13">
+        <v>2</v>
+      </c>
+      <c r="G2" s="13">
+        <v>1</v>
+      </c>
+      <c r="H2" s="14">
+        <v>0</v>
+      </c>
+      <c r="I2" s="12">
+        <v>7</v>
+      </c>
+      <c r="J2" s="13">
+        <v>6</v>
+      </c>
+      <c r="K2" s="13">
+        <v>5</v>
+      </c>
+      <c r="L2" s="13">
+        <v>4</v>
+      </c>
+      <c r="M2" s="13">
+        <v>3</v>
+      </c>
+      <c r="N2" s="12">
+        <v>2</v>
+      </c>
+      <c r="O2" s="13">
+        <v>1</v>
+      </c>
+      <c r="P2" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="16"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6" s="8"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9">
+        <v>1</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0</v>
+      </c>
+      <c r="L7" s="9">
+        <v>0</v>
+      </c>
+      <c r="M7" s="9">
+        <v>1</v>
+      </c>
+      <c r="N7" s="9">
+        <v>1</v>
+      </c>
+      <c r="O7" s="9">
+        <v>0</v>
+      </c>
+      <c r="P7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="R7" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="S7" s="19"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="8">
+        <v>17</v>
+      </c>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8">
+        <v>4</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="10">
+        <f>100/(2^3-1)*N9</f>
+        <v>57.142857142857146</v>
+      </c>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="I6:P6"/>
+    <mergeCell ref="R6:S6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>